--- a/角色清单.xlsx
+++ b/角色清单.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\scripts\order_goods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\scripts\order_goods\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="名称简写" sheetId="1" r:id="rId1"/>
+    <sheet name="名称" sheetId="1" r:id="rId1"/>
     <sheet name="队伍" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="200">
   <si>
     <t>姬宫桃李</t>
   </si>
@@ -594,9 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>昴流</t>
-  </si>
-  <si>
     <t>mao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -753,13 +750,21 @@
   </si>
   <si>
     <t>全称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -831,7 +836,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1093,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1107,13 +1112,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.15">
@@ -1187,7 +1192,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>153</v>
@@ -1209,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>153</v>
@@ -1228,10 +1233,10 @@
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>153</v>
@@ -1250,32 +1255,32 @@
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>153</v>
@@ -1283,10 +1288,10 @@
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>153</v>
@@ -1294,10 +1299,10 @@
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>153</v>
@@ -1305,10 +1310,10 @@
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>153</v>
@@ -1316,10 +1321,10 @@
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>153</v>
@@ -1327,10 +1332,10 @@
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>153</v>
@@ -1338,10 +1343,10 @@
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>153</v>
@@ -1349,10 +1354,10 @@
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>153</v>
@@ -1360,10 +1365,10 @@
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>153</v>
@@ -1371,10 +1376,10 @@
     </row>
     <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>153</v>
@@ -1382,10 +1387,10 @@
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>153</v>
@@ -1393,10 +1398,10 @@
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>153</v>
@@ -1404,10 +1409,10 @@
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>153</v>
@@ -1415,10 +1420,10 @@
     </row>
     <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>153</v>
@@ -1426,10 +1431,10 @@
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>153</v>
@@ -1437,10 +1442,10 @@
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>153</v>
@@ -1448,10 +1453,10 @@
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>153</v>
@@ -1459,10 +1464,10 @@
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>153</v>
@@ -1470,10 +1475,10 @@
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>153</v>
@@ -1481,10 +1486,10 @@
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>153</v>
@@ -1492,10 +1497,10 @@
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>153</v>
@@ -1503,10 +1508,10 @@
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>153</v>
@@ -1514,10 +1519,10 @@
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>153</v>
@@ -1528,7 +1533,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>153</v>
@@ -1536,10 +1541,10 @@
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>153</v>
@@ -1547,10 +1552,10 @@
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>153</v>
@@ -1558,10 +1563,10 @@
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>153</v>
@@ -1569,10 +1574,10 @@
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>153</v>
@@ -1580,10 +1585,10 @@
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>153</v>
@@ -1591,10 +1596,10 @@
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>153</v>
@@ -1602,10 +1607,10 @@
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>153</v>
@@ -1613,10 +1618,10 @@
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>153</v>
@@ -1624,10 +1629,10 @@
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>153</v>
@@ -1635,10 +1640,10 @@
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>153</v>
@@ -1646,10 +1651,10 @@
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>153</v>
@@ -1657,10 +1662,10 @@
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>153</v>
@@ -1668,10 +1673,10 @@
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>153</v>
@@ -1679,10 +1684,10 @@
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>153</v>
@@ -1690,10 +1695,10 @@
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>153</v>
@@ -1701,10 +1706,10 @@
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>153</v>
@@ -1712,10 +1717,10 @@
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>153</v>
@@ -1723,10 +1728,10 @@
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>153</v>
@@ -1734,10 +1739,10 @@
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>153</v>
@@ -1745,10 +1750,10 @@
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>153</v>
@@ -1756,10 +1761,10 @@
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>153</v>
@@ -1767,10 +1772,10 @@
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>153</v>
@@ -1778,10 +1783,10 @@
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>153</v>
@@ -1789,10 +1794,10 @@
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>153</v>
@@ -1800,10 +1805,10 @@
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>153</v>
@@ -1811,10 +1816,10 @@
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>153</v>
@@ -1822,10 +1827,10 @@
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>153</v>
@@ -1833,10 +1838,10 @@
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>153</v>
@@ -1844,10 +1849,10 @@
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>153</v>
@@ -1855,10 +1860,10 @@
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>153</v>
@@ -1866,10 +1871,10 @@
     </row>
     <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>153</v>
@@ -1877,10 +1882,10 @@
     </row>
     <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>153</v>
@@ -1888,10 +1893,10 @@
     </row>
     <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>153</v>
@@ -1899,10 +1904,10 @@
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>153</v>
@@ -1910,10 +1915,10 @@
     </row>
     <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>153</v>
@@ -1921,10 +1926,10 @@
     </row>
     <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>153</v>
@@ -1932,10 +1937,10 @@
     </row>
     <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>153</v>
@@ -1943,10 +1948,10 @@
     </row>
     <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>153</v>
@@ -1954,10 +1959,10 @@
     </row>
     <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>153</v>
@@ -1965,10 +1970,10 @@
     </row>
     <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>153</v>
@@ -1976,10 +1981,10 @@
     </row>
     <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>153</v>
@@ -1987,10 +1992,10 @@
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>153</v>
@@ -1998,43 +2003,43 @@
     </row>
     <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>154</v>
@@ -2042,10 +2047,10 @@
     </row>
     <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>152</v>
@@ -2053,35 +2058,35 @@
     </row>
     <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.15">
@@ -2089,32 +2094,32 @@
         <v>116</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.15">
@@ -2122,18 +2127,18 @@
         <v>118</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>154</v>
@@ -2144,7 +2149,7 @@
         <v>119</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>154</v>
@@ -2152,10 +2157,10 @@
     </row>
     <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>154</v>
@@ -2163,13 +2168,13 @@
     </row>
     <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.15">
@@ -2177,29 +2182,29 @@
         <v>121</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>152</v>
@@ -2207,13 +2212,13 @@
     </row>
     <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.15">
@@ -2221,18 +2226,18 @@
         <v>122</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>152</v>
@@ -2243,21 +2248,21 @@
         <v>123</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.15">
@@ -2265,21 +2270,21 @@
         <v>134</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.15">
@@ -2287,18 +2292,18 @@
         <v>125</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>154</v>
@@ -2306,10 +2311,10 @@
     </row>
     <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>154</v>
@@ -2320,7 +2325,7 @@
         <v>127</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>154</v>
@@ -2328,24 +2333,35 @@
     </row>
     <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2371,10 +2387,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.15">
@@ -2635,7 +2651,7 @@
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
@@ -2643,7 +2659,7 @@
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>9</v>
@@ -2651,7 +2667,7 @@
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>13</v>
@@ -2659,7 +2675,7 @@
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>76</v>
@@ -2819,34 +2835,34 @@
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
